--- a/BaseLimpo/2014_coleta_tipos_residuos.xlsx
+++ b/BaseLimpo/2014_coleta_tipos_residuos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1333,52 +1333,6 @@
         <v>117058.89</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Total Geral</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>514024.01</v>
-      </c>
-      <c r="C20" t="n">
-        <v>470061.546</v>
-      </c>
-      <c r="D20" t="n">
-        <v>500234.13</v>
-      </c>
-      <c r="E20" t="n">
-        <v>486075.82</v>
-      </c>
-      <c r="F20" t="n">
-        <v>497144.93</v>
-      </c>
-      <c r="G20" t="n">
-        <v>451357.46</v>
-      </c>
-      <c r="H20" t="n">
-        <v>490529.05</v>
-      </c>
-      <c r="I20" t="n">
-        <v>485016.99</v>
-      </c>
-      <c r="J20" t="n">
-        <v>505757.06</v>
-      </c>
-      <c r="K20" t="n">
-        <v>502459.54</v>
-      </c>
-      <c r="L20" t="n">
-        <v>463687.75</v>
-      </c>
-      <c r="M20" t="n">
-        <v>521832.91</v>
-      </c>
-      <c r="N20" t="n">
-        <v>5888181.196</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
